--- a/data/trans_orig/P79A5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79A5_2023-Provincia-trans_orig.xlsx
@@ -903,19 +903,19 @@
         <v>11783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8609</v>
+        <v>8521</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13392</v>
+        <v>13388</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8358132939419568</v>
+        <v>0.8358132939419569</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6106333943273085</v>
+        <v>0.6043922518537221</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9498985537068422</v>
+        <v>0.9496445298495632</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -924,19 +924,19 @@
         <v>18783</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15358</v>
+        <v>15128</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20419</v>
+        <v>20398</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8902872707877726</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7279188631900394</v>
+        <v>0.7170138321628715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9678238679915911</v>
+        <v>0.9668107024053825</v>
       </c>
     </row>
     <row r="8">
@@ -966,19 +966,19 @@
         <v>2315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5489</v>
+        <v>5577</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1641867060580431</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05010144629315776</v>
+        <v>0.05035547015043686</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3893666056726917</v>
+        <v>0.3956077481462787</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -987,19 +987,19 @@
         <v>2315</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5740</v>
+        <v>5970</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1097127292122274</v>
+        <v>0.1097127292122273</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03217613200840887</v>
+        <v>0.03318929759461756</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2720811368099613</v>
+        <v>0.2829861678371287</v>
       </c>
     </row>
     <row r="9">
@@ -1091,16 +1091,16 @@
         <v>2292</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3508</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6534364750101044</v>
+        <v>0.6534364750101045</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0</v>
+        <v>0.1310961596196616</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1125,19 +1125,19 @@
         <v>2293</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5261</v>
+        <v>5094</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3283169683773364</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08150613563895863</v>
+        <v>0.07991512741255752</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7534069232872698</v>
+        <v>0.7294406225512021</v>
       </c>
     </row>
     <row r="11">
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3508</v>
+        <v>3048</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3465635249898955</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1</v>
+        <v>0.8689038403803385</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1188,19 +1188,19 @@
         <v>4690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1709</v>
+        <v>1889</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6407</v>
+        <v>6425</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6716830316226635</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2446847981449812</v>
+        <v>0.2705593774487968</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9175187089273167</v>
+        <v>0.9200848725874424</v>
       </c>
     </row>
     <row r="12">
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5419</v>
+        <v>5062</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5120283791783943</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>1</v>
+        <v>0.9341187007473225</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1319,7 +1319,7 @@
         <v>3093</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4576265666372774</v>
+        <v>0.4576265666372775</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
@@ -1334,19 +1334,19 @@
         <v>4190</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1115</v>
+        <v>1067</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7664</v>
+        <v>7453</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4922615022741299</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1309537852179462</v>
+        <v>0.1253077365023264</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9003553343941257</v>
+        <v>0.875532063833684</v>
       </c>
     </row>
     <row r="14">
@@ -1372,7 +1372,7 @@
         <v>0.4879716208216058</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06588129925267766</v>
+        <v>0.06588129925267767</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>3093</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5423734333627225</v>
+        <v>0.5423734333627226</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>0</v>
@@ -1405,19 +1405,19 @@
         <v>4322</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>862</v>
+        <v>1059</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7400</v>
+        <v>7445</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5077384977258701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1012367020209156</v>
+        <v>0.124467936166316</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8693586503201796</v>
+        <v>0.8746922634976738</v>
       </c>
     </row>
     <row r="15">
@@ -1904,7 +1904,7 @@
         <v>0.6538554342980003</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1717514549414167</v>
+        <v>0.1718588386548324</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1916,19 +1916,19 @@
         <v>2778</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5710530144280282</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1431672036584141</v>
+        <v>0.1432397691879365</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8610696517876876</v>
+        <v>0.8608646110570671</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -1937,19 +1937,19 @@
         <v>6911</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3446</v>
+        <v>3442</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9706</v>
+        <v>9512</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6178507361785831</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3080547046091909</v>
+        <v>0.3076942309528543</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8677035185287774</v>
+        <v>0.8503711998571749</v>
       </c>
     </row>
     <row r="23">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8282485450585833</v>
+        <v>0.8281411613451676</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -1987,19 +1987,19 @@
         <v>2086</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4289469855719718</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1390572713431806</v>
+        <v>0.1391957325792509</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8569075059080875</v>
+        <v>0.8567602308120635</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -2008,19 +2008,19 @@
         <v>4275</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1480</v>
+        <v>1674</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7740</v>
+        <v>7744</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.382149263821417</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1322964814712226</v>
+        <v>0.1496288001428251</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6919452953908088</v>
+        <v>0.6923057690471459</v>
       </c>
     </row>
     <row r="24">
@@ -2112,16 +2112,16 @@
         <v>19124</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14825</v>
+        <v>14963</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>20968</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.9120469237182719</v>
+        <v>0.9120469237182717</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7070392659299329</v>
+        <v>0.7135999382789142</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1</v>
@@ -2146,16 +2146,16 @@
         <v>37014</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33481</v>
+        <v>32911</v>
       </c>
       <c r="T25" s="5" t="n">
         <v>38858</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.9525394740699071</v>
+        <v>0.9525394740699069</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8616177453654967</v>
+        <v>0.8469451930308816</v>
       </c>
       <c r="W25" s="6" t="n">
         <v>1</v>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6143</v>
+        <v>6005</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08795307628172824</v>
+        <v>0.08795307628172823</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2929607340700668</v>
+        <v>0.2864000617210856</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5377</v>
+        <v>5947</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04746052593009305</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.138382254634503</v>
+        <v>0.153054806969118</v>
       </c>
     </row>
     <row r="27">
@@ -2313,19 +2313,19 @@
         <v>36725</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30472</v>
+        <v>29642</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42073</v>
+        <v>41172</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7829098225848206</v>
+        <v>0.7829098225848208</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6496181376544554</v>
+        <v>0.6319128372185565</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8969337726780046</v>
+        <v>0.8777225746063466</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>47</v>
@@ -2334,19 +2334,19 @@
         <v>34566</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>29082</v>
+        <v>29187</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>38957</v>
+        <v>38877</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7766793965992853</v>
+        <v>0.7766793965992854</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6534516627295398</v>
+        <v>0.6558198130645958</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8753391610379334</v>
+        <v>0.8735485801946213</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>82</v>
@@ -2355,19 +2355,19 @@
         <v>71291</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>63054</v>
+        <v>63065</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>78208</v>
+        <v>78201</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7798764834244846</v>
+        <v>0.7798764834244849</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6897675212564072</v>
+        <v>0.6898889039084847</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8555444733097026</v>
+        <v>0.8554703021197981</v>
       </c>
     </row>
     <row r="29">
@@ -2384,19 +2384,19 @@
         <v>10183</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4835</v>
+        <v>5736</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16436</v>
+        <v>17266</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2170901774151792</v>
+        <v>0.2170901774151793</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.103066227321996</v>
+        <v>0.1222774253936535</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3503818623455462</v>
+        <v>0.3680871627814439</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -2405,19 +2405,19 @@
         <v>9939</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5548</v>
+        <v>5628</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15423</v>
+        <v>15318</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2233206034007148</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1246608389620668</v>
+        <v>0.1264514198053785</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.346548337270461</v>
+        <v>0.3441801869354043</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>24</v>
@@ -2426,19 +2426,19 @@
         <v>20122</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13205</v>
+        <v>13212</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>28359</v>
+        <v>28348</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2201235165755154</v>
+        <v>0.2201235165755155</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1444555266902974</v>
+        <v>0.1445296978802019</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3102324787435927</v>
+        <v>0.3101110960915158</v>
       </c>
     </row>
     <row r="30">
